--- a/individual_case_outputs/avey/28.xlsx
+++ b/individual_case_outputs/avey/28.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>diabetes mellitus</t>
+          <t>diabetes insipidus</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -706,7 +706,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>diabetic ketoacidosis</t>
+          <t>hyperosmolar hyperglycemic nonketotic state</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>diabetes mellitus</t>
+          <t>diabetes insipidus</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>diabetes insipidus</t>
+          <t>bladder infection</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>diabetes mellitus</t>
+          <t>metabolic disorder</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -887,7 +887,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>bladder infection</t>
+          <t>hyperthyroidism</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -942,11 +942,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>hyperthyroidism</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>sickle cell anemia</t>
